--- a/VS-SanityPROD/testdata.xlsx
+++ b/VS-SanityPROD/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8E151-0F9E-43C3-B660-D96028A2F6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B5BD5-C519-4D17-8F7B-70C73C73DF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,9 +347,6 @@
     <t>https://valuestore-stg.pwc.com/content/valuestore/us/en/firmwide/qa-or-uat/erinc-content-automation-pages/erinc-content-page.html</t>
   </si>
   <si>
-    <t>https://valuestore.pwc.com/content/valuestore/us/en/insights/managing-the-risks-of-generative-ai.html</t>
-  </si>
-  <si>
     <t>https://valuestore.pwc.com/us/en.html</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>https://valuestore.pwc.com/content/valuestore/mx/es/insights/Global-Consumer-Insights-Survey-Capitulo-Mexico-Marzo.html</t>
+  </si>
+  <si>
+    <t>https://valuestore.pwc.com/content/valuestore/us/en/insights/the-better-way-series--engineering-a-better-way--a-guide-to-pwc-.html</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1600,7 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
